--- a/DF_document/规划设计/战斗/技能csv规划.xlsx
+++ b/DF_document/规划设计/战斗/技能csv规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DF_reborn\df-reborn\DF_document\规划设计\战斗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF541B55-935E-4C42-B98C-A599B06A9BB8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8BA0FD-C866-4B08-A344-BE1A40F2D218}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{34F57132-8C93-48B3-A230-C77670AB921D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,38 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剧情开关1_id|剧情开关2_id|剧情开关3_id|剧情开关4_id，没有则填为0。这里的开关id对应的是system.json里面的switches的id。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,32 +111,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲闪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续打人两下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>"攻击"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"闪避"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"回血"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"连续攻击"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"打人"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"躲闪"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"加血"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"连续打人两下"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array&lt;Number&gt;</t>
+  </si>
+  <si>
+    <t>[0,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[21,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[22,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[23,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -531,7 +544,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -564,80 +577,80 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -645,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -657,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -671,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -683,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -697,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -709,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -723,10 +736,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -734,14 +747,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DF_document/规划设计/战斗/技能csv规划.xlsx
+++ b/DF_document/规划设计/战斗/技能csv规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DF_reborn\df-reborn\DF_document\规划设计\战斗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8BA0FD-C866-4B08-A344-BE1A40F2D218}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240FFEF5-A23B-4183-BA91-7FF969E34CBC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{34F57132-8C93-48B3-A230-C77670AB921D}"/>
   </bookViews>
@@ -111,38 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"攻击"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"闪避"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"回血"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"连续攻击"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"打人"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"躲闪"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"加血"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"连续打人两下"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Array&lt;Number&gt;</t>
   </si>
   <si>
@@ -178,6 +146,30 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>打人</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>躲闪</t>
+  </si>
+  <si>
+    <t>回血</t>
+  </si>
+  <si>
+    <t>加血</t>
+  </si>
+  <si>
+    <t>连续攻击</t>
+  </si>
+  <si>
+    <t>连续打人两下</t>
   </si>
 </sst>
 </file>
@@ -544,7 +536,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,28 +595,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -658,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -670,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -684,10 +676,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -696,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -710,10 +702,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -722,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -736,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -748,13 +740,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
